--- a/biology/Botanique/Listère_cordée/Listère_cordée.xlsx
+++ b/biology/Botanique/Listère_cordée/Listère_cordée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>List%C3%A8re_cord%C3%A9e</t>
+          <t>Listère_cordée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neottia cordata
 La listère cordée (Neottia cordata) est une espèce d'orchidacée des tourbières d'altitude. Généralement, elle ne dépasse pas une hauteur de 15 cm. Elle pousse de préférence sur la sphaigne, abritée par de la bruyère.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>List%C3%A8re_cord%C3%A9e</t>
+          <t>Listère_cordée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La listère cordée se rencontre en Europe, en Asie, au Groenland et en Amérique du Nord.
 En Europe, on la trouve dans les Alpes et, en France, dans le massif des Vosges.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>List%C3%A8re_cord%C3%A9e</t>
+          <t>Listère_cordée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Alsace, en Aquitaine, en Auvergne, en Corse, en Lorraine et en Midi-Pyrénées.
 Liste des espèces végétales protégées en Lorraine
